--- a/admissions/static/xlsx/interview_template.xlsx
+++ b/admissions/static/xlsx/interview_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">Candidate interview 
 Evaluation form</t>
@@ -77,6 +77,9 @@
     <t xml:space="preserve">Career goals / 
 Professional work 
 Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Research interest 
@@ -466,9 +469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>805320</xdr:colOff>
+      <xdr:colOff>804960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>403920</xdr:rowOff>
+      <xdr:rowOff>403560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -477,13 +480,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="0" t="16978" r="87167" b="79537"/>
+        <a:srcRect l="0" t="16973" r="87156" b="79528"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123120" y="48600"/>
-          <a:ext cx="2414880" cy="355320"/>
+          <a:ext cx="2414520" cy="354960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,11 +508,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.26"/>
@@ -612,138 +615,138 @@
       <c r="C8" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17" t="n">
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17" t="e">
         <f aca="false">C8*D8</f>
-        <v>20</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="19" t="e">
         <f aca="false">(F8*D8)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17" t="n">
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17" t="e">
         <f aca="false">C9*D9</f>
-        <v>20</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19" t="e">
         <f aca="false">(F9*D9)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="17" t="n">
+      <c r="D10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17" t="e">
         <f aca="false">C10*D10</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="19" t="e">
         <f aca="false">(F10*D10)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="17" t="n">
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="17" t="e">
         <f aca="false">C11*D11</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="19" t="e">
         <f aca="false">(F11*D11)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="17" t="n">
+      <c r="D12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="17" t="e">
         <f aca="false">C12*D12</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="19" t="n">
+      <c r="G12" s="19" t="e">
         <f aca="false">(F12*D12)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="43.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="17" t="n">
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="17" t="e">
         <f aca="false">C13*D13</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="19" t="e">
         <f aca="false">(F13*D13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="22" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22" t="e">
         <f aca="false">SUM(G8:G13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
